--- a/score.xlsx
+++ b/score.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
   <si>
     <t>feature</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,39 +52,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>bag_of_words</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有上一个特征表现好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征集从关系亲密到疏远的排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改标签后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系个数为70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>hapax_words</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bag_of_words</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有上一个特征表现好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弃了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特征集从关系亲密到疏远的排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改标签后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系个数为70</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -157,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -167,6 +211,19 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -447,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -482,7 +539,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -492,330 +549,330 @@
       <c r="B2" s="7">
         <v>0</v>
       </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
+      <c r="C2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="F2" s="8">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="C3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="F3" s="1">
-        <v>0.57199999999999995</v>
+        <v>0.56799999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+      <c r="C4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="F4" s="1">
-        <v>0.59</v>
+        <v>0.57199999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>1</v>
+      <c r="C5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="F5" s="1">
-        <v>0.60499999999999998</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="F6" s="1">
-        <v>0.61499999999999999</v>
+        <v>0.60499999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="C8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1">
         <v>0.625</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5">
         <v>5</v>
       </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.63749999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="C9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="6">
         <v>0.63749999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.63749999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.63749999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="7">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="2">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.63749999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8">
+      <c r="C14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="8">
         <v>0.58299999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15">
-        <v>1</v>
+      <c r="C15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="F15" s="1">
-        <v>0.57250000000000001</v>
+        <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.57250000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B17">
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="C17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="7">
         <v>0</v>
       </c>
-      <c r="D16">
+      <c r="C18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.56110000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B19">
         <v>1</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.59</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="C19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.52810000000000001</v>
+      </c>
+      <c r="G19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="7">
-        <v>0</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0.56110000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.52810000000000001</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B20" s="5">
         <v>5</v>
       </c>
-      <c r="C19" s="5">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="C20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="6">
         <v>0.6825</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.68</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
@@ -825,20 +882,40 @@
       <c r="B21">
         <v>5</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
+      <c r="C21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="F21" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="1">
         <v>0.88570000000000004</v>
       </c>
-      <c r="G21" t="s">
-        <v>16</v>
+      <c r="G22" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
